--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -796,6 +796,29 @@
           <t>A0</t>
         </is>
       </c>
+    </row>
+    <row r="12" ht="12.8" customHeight="1" s="2">
+      <c r="A12" s="3" t="n">
+        <v>20150011</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -449,11 +449,11 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A+</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>58.51</v>
+        <v>58.51000000000001</v>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>52.36</v>
+        <v>52.35999999999999</v>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>63.96</v>
+        <v>63.96000000000001</v>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
@@ -818,7 +818,14 @@
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="n"/>
+      <c r="G12" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>A0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -792,36 +792,6 @@
         <v>63.96000000000001</v>
       </c>
       <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>A0</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="12.8" customHeight="1" s="2">
-      <c r="A12" s="3" t="n">
-        <v>20150011</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>hi</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>A+</t>
         </is>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>C+</t>
         </is>
       </c>
     </row>

--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>B0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>C+</t>
+          <t>C0</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>B+</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>A+</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
